--- a/src/test/java/Data/title2.xlsx
+++ b/src/test/java/Data/title2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FEF87B-FEC1-45E1-89CB-830EAAEA0C27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CC4A59-5786-4E04-BB54-940A528CDD97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="79">
   <si>
     <t>title</t>
   </si>
@@ -161,13 +161,109 @@
   </si>
   <si>
     <t>dfgdgf</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>TC123</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>TC124</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>TC125</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>TC126</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>TC127</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>TC128</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>TC129</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>TC130</t>
+  </si>
+  <si>
+    <t>TC131</t>
+  </si>
+  <si>
+    <t>TC132</t>
+  </si>
+  <si>
+    <t>TC133</t>
+  </si>
+  <si>
+    <t>TC134</t>
+  </si>
+  <si>
+    <t>TC135</t>
+  </si>
+  <si>
+    <t>TC136</t>
+  </si>
+  <si>
+    <t>TC137</t>
+  </si>
+  <si>
+    <t>TC138</t>
+  </si>
+  <si>
+    <t>TC139</t>
+  </si>
+  <si>
+    <t>TC140</t>
+  </si>
+  <si>
+    <t>TC141</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,16 +271,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -192,12 +310,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,1554 +659,1734 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4:Y20"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="G2" s="1">
         <v>324234</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="I2" s="1">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2">
+      <c r="L2" s="1">
         <v>5435</v>
       </c>
-      <c r="J2">
-        <v>66</v>
-      </c>
-      <c r="K2">
-        <v>66</v>
-      </c>
-      <c r="L2">
+      <c r="M2" s="1">
+        <v>66</v>
+      </c>
+      <c r="N2" s="1">
+        <v>66</v>
+      </c>
+      <c r="O2" s="1">
         <v>54</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R2">
+      <c r="U2" s="1">
         <v>454</v>
       </c>
-      <c r="S2">
+      <c r="V2" s="1">
         <v>345</v>
       </c>
-      <c r="T2">
+      <c r="W2" s="1">
         <v>435345</v>
       </c>
-      <c r="U2">
+      <c r="X2" s="1">
         <v>435</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W2">
+      <c r="Z2" s="1">
         <v>4545</v>
       </c>
-      <c r="X2">
+      <c r="AA2" s="1">
         <v>543</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="G3" s="1">
         <v>43424</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="I3" s="1">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3">
+      <c r="L3" s="1">
         <v>555</v>
       </c>
-      <c r="J3">
-        <v>66</v>
-      </c>
-      <c r="K3">
-        <v>66</v>
-      </c>
-      <c r="L3">
+      <c r="M3" s="1">
+        <v>66</v>
+      </c>
+      <c r="N3" s="1">
+        <v>66</v>
+      </c>
+      <c r="O3" s="1">
         <v>54</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R3">
+      <c r="U3" s="1">
         <v>3545</v>
       </c>
-      <c r="S3">
+      <c r="V3" s="1">
         <v>5</v>
       </c>
-      <c r="T3">
+      <c r="W3" s="1">
         <v>34534</v>
       </c>
-      <c r="U3">
+      <c r="X3" s="1">
         <v>535</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Y3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W3">
+      <c r="Z3" s="1">
         <v>4534</v>
       </c>
-      <c r="X3">
+      <c r="AA3" s="1">
         <v>4535</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="G4" s="1">
         <v>23424343</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4">
+      <c r="I4" s="1">
         <v>45</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4">
+      <c r="L4" s="1">
         <v>666</v>
       </c>
-      <c r="J4">
-        <v>66</v>
-      </c>
-      <c r="K4">
-        <v>66</v>
-      </c>
-      <c r="L4">
+      <c r="M4" s="1">
+        <v>66</v>
+      </c>
+      <c r="N4" s="1">
+        <v>66</v>
+      </c>
+      <c r="O4" s="1">
         <v>54</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P4" t="s">
+      <c r="S4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="T4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R4">
+      <c r="U4" s="1">
         <v>3455</v>
       </c>
-      <c r="S4">
-        <v>66</v>
-      </c>
-      <c r="T4">
+      <c r="V4" s="1">
+        <v>66</v>
+      </c>
+      <c r="W4" s="1">
         <v>3453</v>
       </c>
-      <c r="U4">
+      <c r="X4" s="1">
         <v>4545</v>
       </c>
-      <c r="V4" t="s">
+      <c r="Y4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W4">
+      <c r="Z4" s="1">
         <v>54345</v>
       </c>
-      <c r="X4">
+      <c r="AA4" s="1">
         <v>5435</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="G5" s="1">
         <v>23424343</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
+      <c r="I5" s="1">
         <v>45</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I5">
+      <c r="L5" s="1">
         <v>666</v>
       </c>
-      <c r="J5">
-        <v>66</v>
-      </c>
-      <c r="K5">
-        <v>66</v>
-      </c>
-      <c r="L5">
+      <c r="M5" s="1">
+        <v>66</v>
+      </c>
+      <c r="N5" s="1">
+        <v>66</v>
+      </c>
+      <c r="O5" s="1">
         <v>54</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O5" t="s">
+      <c r="R5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P5" t="s">
+      <c r="S5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="T5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R5">
+      <c r="U5" s="1">
         <v>3455</v>
       </c>
-      <c r="S5">
-        <v>66</v>
-      </c>
-      <c r="T5">
+      <c r="V5" s="1">
+        <v>66</v>
+      </c>
+      <c r="W5" s="1">
         <v>3453</v>
       </c>
-      <c r="U5">
+      <c r="X5" s="1">
         <v>4545</v>
       </c>
-      <c r="V5" t="s">
+      <c r="Y5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W5">
+      <c r="Z5" s="1">
         <v>54345</v>
       </c>
-      <c r="X5">
+      <c r="AA5" s="1">
         <v>5435</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AB5" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="G6" s="1">
         <v>23424343</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6">
+      <c r="I6" s="1">
         <v>45</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I6">
+      <c r="L6" s="1">
         <v>666</v>
       </c>
-      <c r="J6">
-        <v>66</v>
-      </c>
-      <c r="K6">
-        <v>66</v>
-      </c>
-      <c r="L6">
+      <c r="M6" s="1">
+        <v>66</v>
+      </c>
+      <c r="N6" s="1">
+        <v>66</v>
+      </c>
+      <c r="O6" s="1">
         <v>54</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N6" t="s">
+      <c r="Q6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O6" t="s">
+      <c r="R6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P6" t="s">
+      <c r="S6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="T6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R6">
+      <c r="U6" s="1">
         <v>3455</v>
       </c>
-      <c r="S6">
-        <v>66</v>
-      </c>
-      <c r="T6">
+      <c r="V6" s="1">
+        <v>66</v>
+      </c>
+      <c r="W6" s="1">
         <v>3453</v>
       </c>
-      <c r="U6">
+      <c r="X6" s="1">
         <v>4545</v>
       </c>
-      <c r="V6" t="s">
+      <c r="Y6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W6">
+      <c r="Z6" s="1">
         <v>54345</v>
       </c>
-      <c r="X6">
+      <c r="AA6" s="1">
         <v>5435</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AB6" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="F7" s="1">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="G7" s="1">
         <v>23424343</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7">
+      <c r="I7" s="1">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I7">
+      <c r="L7" s="1">
         <v>666</v>
       </c>
-      <c r="J7">
-        <v>66</v>
-      </c>
-      <c r="K7">
-        <v>66</v>
-      </c>
-      <c r="L7">
+      <c r="M7" s="1">
+        <v>66</v>
+      </c>
+      <c r="N7" s="1">
+        <v>66</v>
+      </c>
+      <c r="O7" s="1">
         <v>54</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N7" t="s">
+      <c r="Q7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O7" t="s">
+      <c r="R7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P7" t="s">
+      <c r="S7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="T7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R7">
+      <c r="U7" s="1">
         <v>3455</v>
       </c>
-      <c r="S7">
-        <v>66</v>
-      </c>
-      <c r="T7">
+      <c r="V7" s="1">
+        <v>66</v>
+      </c>
+      <c r="W7" s="1">
         <v>3453</v>
       </c>
-      <c r="U7">
+      <c r="X7" s="1">
         <v>4545</v>
       </c>
-      <c r="V7" t="s">
+      <c r="Y7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W7">
+      <c r="Z7" s="1">
         <v>54345</v>
       </c>
-      <c r="X7">
+      <c r="AA7" s="1">
         <v>5435</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AB7" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="F8" s="1">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="G8" s="1">
         <v>23424343</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8">
+      <c r="I8" s="1">
         <v>45</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I8">
+      <c r="L8" s="1">
         <v>666</v>
       </c>
-      <c r="J8">
-        <v>66</v>
-      </c>
-      <c r="K8">
-        <v>66</v>
-      </c>
-      <c r="L8">
+      <c r="M8" s="1">
+        <v>66</v>
+      </c>
+      <c r="N8" s="1">
+        <v>66</v>
+      </c>
+      <c r="O8" s="1">
         <v>54</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N8" t="s">
+      <c r="Q8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O8" t="s">
+      <c r="R8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P8" t="s">
+      <c r="S8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="T8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R8">
+      <c r="U8" s="1">
         <v>3455</v>
       </c>
-      <c r="S8">
-        <v>66</v>
-      </c>
-      <c r="T8">
+      <c r="V8" s="1">
+        <v>66</v>
+      </c>
+      <c r="W8" s="1">
         <v>3453</v>
       </c>
-      <c r="U8">
+      <c r="X8" s="1">
         <v>4545</v>
       </c>
-      <c r="V8" t="s">
+      <c r="Y8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W8">
+      <c r="Z8" s="1">
         <v>54345</v>
       </c>
-      <c r="X8">
+      <c r="AA8" s="1">
         <v>5435</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AB8" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="F9" s="1">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="G9" s="1">
         <v>23424343</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9">
+      <c r="I9" s="1">
         <v>45</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I9">
+      <c r="L9" s="1">
         <v>666</v>
       </c>
-      <c r="J9">
-        <v>66</v>
-      </c>
-      <c r="K9">
-        <v>66</v>
-      </c>
-      <c r="L9">
+      <c r="M9" s="1">
+        <v>66</v>
+      </c>
+      <c r="N9" s="1">
+        <v>66</v>
+      </c>
+      <c r="O9" s="1">
         <v>54</v>
       </c>
-      <c r="M9" t="s">
+      <c r="P9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N9" t="s">
+      <c r="Q9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="R9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P9" t="s">
+      <c r="S9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="T9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R9">
+      <c r="U9" s="1">
         <v>3455</v>
       </c>
-      <c r="S9">
-        <v>66</v>
-      </c>
-      <c r="T9">
+      <c r="V9" s="1">
+        <v>66</v>
+      </c>
+      <c r="W9" s="1">
         <v>3453</v>
       </c>
-      <c r="U9">
+      <c r="X9" s="1">
         <v>4545</v>
       </c>
-      <c r="V9" t="s">
+      <c r="Y9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W9">
+      <c r="Z9" s="1">
         <v>54345</v>
       </c>
-      <c r="X9">
+      <c r="AA9" s="1">
         <v>5435</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="AB9" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="F10" s="1">
         <v>3</v>
       </c>
-      <c r="D10">
+      <c r="G10" s="1">
         <v>23424343</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10">
+      <c r="I10" s="1">
         <v>45</v>
       </c>
-      <c r="G10" t="s">
+      <c r="J10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H10" t="s">
+      <c r="K10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I10">
+      <c r="L10" s="1">
         <v>666</v>
       </c>
-      <c r="J10">
-        <v>66</v>
-      </c>
-      <c r="K10">
-        <v>66</v>
-      </c>
-      <c r="L10">
+      <c r="M10" s="1">
+        <v>66</v>
+      </c>
+      <c r="N10" s="1">
+        <v>66</v>
+      </c>
+      <c r="O10" s="1">
         <v>54</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N10" t="s">
+      <c r="Q10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O10" t="s">
+      <c r="R10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P10" t="s">
+      <c r="S10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="T10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R10">
+      <c r="U10" s="1">
         <v>3455</v>
       </c>
-      <c r="S10">
-        <v>66</v>
-      </c>
-      <c r="T10">
+      <c r="V10" s="1">
+        <v>66</v>
+      </c>
+      <c r="W10" s="1">
         <v>3453</v>
       </c>
-      <c r="U10">
+      <c r="X10" s="1">
         <v>4545</v>
       </c>
-      <c r="V10" t="s">
+      <c r="Y10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W10">
+      <c r="Z10" s="1">
         <v>54345</v>
       </c>
-      <c r="X10">
+      <c r="AA10" s="1">
         <v>5435</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="AB10" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="F11" s="1">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="G11" s="1">
         <v>23424343</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F11">
+      <c r="I11" s="1">
         <v>45</v>
       </c>
-      <c r="G11" t="s">
+      <c r="J11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H11" t="s">
+      <c r="K11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I11">
+      <c r="L11" s="1">
         <v>666</v>
       </c>
-      <c r="J11">
-        <v>66</v>
-      </c>
-      <c r="K11">
-        <v>66</v>
-      </c>
-      <c r="L11">
+      <c r="M11" s="1">
+        <v>66</v>
+      </c>
+      <c r="N11" s="1">
+        <v>66</v>
+      </c>
+      <c r="O11" s="1">
         <v>54</v>
       </c>
-      <c r="M11" t="s">
+      <c r="P11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N11" t="s">
+      <c r="Q11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O11" t="s">
+      <c r="R11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P11" t="s">
+      <c r="S11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="T11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R11">
+      <c r="U11" s="1">
         <v>3455</v>
       </c>
-      <c r="S11">
-        <v>66</v>
-      </c>
-      <c r="T11">
+      <c r="V11" s="1">
+        <v>66</v>
+      </c>
+      <c r="W11" s="1">
         <v>3453</v>
       </c>
-      <c r="U11">
+      <c r="X11" s="1">
         <v>4545</v>
       </c>
-      <c r="V11" t="s">
+      <c r="Y11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W11">
+      <c r="Z11" s="1">
         <v>54345</v>
       </c>
-      <c r="X11">
+      <c r="AA11" s="1">
         <v>5435</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="AB11" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
+      <c r="F12" s="1">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="G12" s="1">
         <v>23424343</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F12">
+      <c r="I12" s="1">
         <v>45</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H12" t="s">
+      <c r="K12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I12">
+      <c r="L12" s="1">
         <v>666</v>
       </c>
-      <c r="J12">
-        <v>66</v>
-      </c>
-      <c r="K12">
-        <v>66</v>
-      </c>
-      <c r="L12">
+      <c r="M12" s="1">
+        <v>66</v>
+      </c>
+      <c r="N12" s="1">
+        <v>66</v>
+      </c>
+      <c r="O12" s="1">
         <v>54</v>
       </c>
-      <c r="M12" t="s">
+      <c r="P12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N12" t="s">
+      <c r="Q12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O12" t="s">
+      <c r="R12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P12" t="s">
+      <c r="S12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="T12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R12">
+      <c r="U12" s="1">
         <v>3455</v>
       </c>
-      <c r="S12">
-        <v>66</v>
-      </c>
-      <c r="T12">
+      <c r="V12" s="1">
+        <v>66</v>
+      </c>
+      <c r="W12" s="1">
         <v>3453</v>
       </c>
-      <c r="U12">
+      <c r="X12" s="1">
         <v>4545</v>
       </c>
-      <c r="V12" t="s">
+      <c r="Y12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W12">
+      <c r="Z12" s="1">
         <v>54345</v>
       </c>
-      <c r="X12">
+      <c r="AA12" s="1">
         <v>5435</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AB12" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="F13" s="1">
         <v>3</v>
       </c>
-      <c r="D13">
+      <c r="G13" s="1">
         <v>23424343</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="I13" s="1">
         <v>45</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H13" t="s">
+      <c r="K13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I13">
+      <c r="L13" s="1">
         <v>666</v>
       </c>
-      <c r="J13">
-        <v>66</v>
-      </c>
-      <c r="K13">
-        <v>66</v>
-      </c>
-      <c r="L13">
+      <c r="M13" s="1">
+        <v>66</v>
+      </c>
+      <c r="N13" s="1">
+        <v>66</v>
+      </c>
+      <c r="O13" s="1">
         <v>54</v>
       </c>
-      <c r="M13" t="s">
+      <c r="P13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N13" t="s">
+      <c r="Q13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O13" t="s">
+      <c r="R13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P13" t="s">
+      <c r="S13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="T13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R13">
+      <c r="U13" s="1">
         <v>3455</v>
       </c>
-      <c r="S13">
-        <v>66</v>
-      </c>
-      <c r="T13">
+      <c r="V13" s="1">
+        <v>66</v>
+      </c>
+      <c r="W13" s="1">
         <v>3453</v>
       </c>
-      <c r="U13">
+      <c r="X13" s="1">
         <v>4545</v>
       </c>
-      <c r="V13" t="s">
+      <c r="Y13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W13">
+      <c r="Z13" s="1">
         <v>54345</v>
       </c>
-      <c r="X13">
+      <c r="AA13" s="1">
         <v>5435</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="AB13" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14">
+      <c r="F14" s="1">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="G14" s="1">
         <v>23424343</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F14">
+      <c r="I14" s="1">
         <v>45</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H14" t="s">
+      <c r="K14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I14">
+      <c r="L14" s="1">
         <v>666</v>
       </c>
-      <c r="J14">
-        <v>66</v>
-      </c>
-      <c r="K14">
-        <v>66</v>
-      </c>
-      <c r="L14">
+      <c r="M14" s="1">
+        <v>66</v>
+      </c>
+      <c r="N14" s="1">
+        <v>66</v>
+      </c>
+      <c r="O14" s="1">
         <v>54</v>
       </c>
-      <c r="M14" t="s">
+      <c r="P14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N14" t="s">
+      <c r="Q14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O14" t="s">
+      <c r="R14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P14" t="s">
+      <c r="S14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="T14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R14">
+      <c r="U14" s="1">
         <v>3455</v>
       </c>
-      <c r="S14">
-        <v>66</v>
-      </c>
-      <c r="T14">
+      <c r="V14" s="1">
+        <v>66</v>
+      </c>
+      <c r="W14" s="1">
         <v>3453</v>
       </c>
-      <c r="U14">
+      <c r="X14" s="1">
         <v>4545</v>
       </c>
-      <c r="V14" t="s">
+      <c r="Y14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W14">
+      <c r="Z14" s="1">
         <v>54345</v>
       </c>
-      <c r="X14">
+      <c r="AA14" s="1">
         <v>5435</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="AB14" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15">
+      <c r="F15" s="1">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="G15" s="1">
         <v>23424343</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F15">
+      <c r="I15" s="1">
         <v>45</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H15" t="s">
+      <c r="K15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I15">
+      <c r="L15" s="1">
         <v>666</v>
       </c>
-      <c r="J15">
-        <v>66</v>
-      </c>
-      <c r="K15">
-        <v>66</v>
-      </c>
-      <c r="L15">
+      <c r="M15" s="1">
+        <v>66</v>
+      </c>
+      <c r="N15" s="1">
+        <v>66</v>
+      </c>
+      <c r="O15" s="1">
         <v>54</v>
       </c>
-      <c r="M15" t="s">
+      <c r="P15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N15" t="s">
+      <c r="Q15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O15" t="s">
+      <c r="R15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P15" t="s">
+      <c r="S15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="T15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R15">
+      <c r="U15" s="1">
         <v>3455</v>
       </c>
-      <c r="S15">
-        <v>66</v>
-      </c>
-      <c r="T15">
+      <c r="V15" s="1">
+        <v>66</v>
+      </c>
+      <c r="W15" s="1">
         <v>3453</v>
       </c>
-      <c r="U15">
+      <c r="X15" s="1">
         <v>4545</v>
       </c>
-      <c r="V15" t="s">
+      <c r="Y15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W15">
+      <c r="Z15" s="1">
         <v>54345</v>
       </c>
-      <c r="X15">
+      <c r="AA15" s="1">
         <v>5435</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="AB15" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16">
+      <c r="F16" s="1">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="G16" s="1">
         <v>23424343</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F16">
+      <c r="I16" s="1">
         <v>45</v>
       </c>
-      <c r="G16" t="s">
+      <c r="J16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H16" t="s">
+      <c r="K16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I16">
+      <c r="L16" s="1">
         <v>666</v>
       </c>
-      <c r="J16">
-        <v>66</v>
-      </c>
-      <c r="K16">
-        <v>66</v>
-      </c>
-      <c r="L16">
+      <c r="M16" s="1">
+        <v>66</v>
+      </c>
+      <c r="N16" s="1">
+        <v>66</v>
+      </c>
+      <c r="O16" s="1">
         <v>54</v>
       </c>
-      <c r="M16" t="s">
+      <c r="P16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N16" t="s">
+      <c r="Q16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O16" t="s">
+      <c r="R16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P16" t="s">
+      <c r="S16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="T16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R16">
+      <c r="U16" s="1">
         <v>3455</v>
       </c>
-      <c r="S16">
-        <v>66</v>
-      </c>
-      <c r="T16">
+      <c r="V16" s="1">
+        <v>66</v>
+      </c>
+      <c r="W16" s="1">
         <v>3453</v>
       </c>
-      <c r="U16">
+      <c r="X16" s="1">
         <v>4545</v>
       </c>
-      <c r="V16" t="s">
+      <c r="Y16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W16">
+      <c r="Z16" s="1">
         <v>54345</v>
       </c>
-      <c r="X16">
+      <c r="AA16" s="1">
         <v>5435</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="AB16" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17">
+      <c r="F17" s="1">
         <v>3</v>
       </c>
-      <c r="D17">
+      <c r="G17" s="1">
         <v>23424343</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F17">
+      <c r="I17" s="1">
         <v>45</v>
       </c>
-      <c r="G17" t="s">
+      <c r="J17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H17" t="s">
+      <c r="K17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I17">
+      <c r="L17" s="1">
         <v>666</v>
       </c>
-      <c r="J17">
-        <v>66</v>
-      </c>
-      <c r="K17">
-        <v>66</v>
-      </c>
-      <c r="L17">
+      <c r="M17" s="1">
+        <v>66</v>
+      </c>
+      <c r="N17" s="1">
+        <v>66</v>
+      </c>
+      <c r="O17" s="1">
         <v>54</v>
       </c>
-      <c r="M17" t="s">
+      <c r="P17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N17" t="s">
+      <c r="Q17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O17" t="s">
+      <c r="R17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P17" t="s">
+      <c r="S17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="T17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R17">
+      <c r="U17" s="1">
         <v>3455</v>
       </c>
-      <c r="S17">
-        <v>66</v>
-      </c>
-      <c r="T17">
+      <c r="V17" s="1">
+        <v>66</v>
+      </c>
+      <c r="W17" s="1">
         <v>3453</v>
       </c>
-      <c r="U17">
+      <c r="X17" s="1">
         <v>4545</v>
       </c>
-      <c r="V17" t="s">
+      <c r="Y17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W17">
+      <c r="Z17" s="1">
         <v>54345</v>
       </c>
-      <c r="X17">
+      <c r="AA17" s="1">
         <v>5435</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="AB17" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C18">
+      <c r="F18" s="1">
         <v>3</v>
       </c>
-      <c r="D18">
+      <c r="G18" s="1">
         <v>23424343</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F18">
+      <c r="I18" s="1">
         <v>45</v>
       </c>
-      <c r="G18" t="s">
+      <c r="J18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H18" t="s">
+      <c r="K18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I18">
+      <c r="L18" s="1">
         <v>666</v>
       </c>
-      <c r="J18">
-        <v>66</v>
-      </c>
-      <c r="K18">
-        <v>66</v>
-      </c>
-      <c r="L18">
+      <c r="M18" s="1">
+        <v>66</v>
+      </c>
+      <c r="N18" s="1">
+        <v>66</v>
+      </c>
+      <c r="O18" s="1">
         <v>54</v>
       </c>
-      <c r="M18" t="s">
+      <c r="P18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N18" t="s">
+      <c r="Q18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O18" t="s">
+      <c r="R18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P18" t="s">
+      <c r="S18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="T18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R18">
+      <c r="U18" s="1">
         <v>3455</v>
       </c>
-      <c r="S18">
-        <v>66</v>
-      </c>
-      <c r="T18">
+      <c r="V18" s="1">
+        <v>66</v>
+      </c>
+      <c r="W18" s="1">
         <v>3453</v>
       </c>
-      <c r="U18">
+      <c r="X18" s="1">
         <v>4545</v>
       </c>
-      <c r="V18" t="s">
+      <c r="Y18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W18">
+      <c r="Z18" s="1">
         <v>54345</v>
       </c>
-      <c r="X18">
+      <c r="AA18" s="1">
         <v>5435</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="AB18" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C19">
+      <c r="F19" s="1">
         <v>3</v>
       </c>
-      <c r="D19">
+      <c r="G19" s="1">
         <v>23424343</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="I19" s="1">
         <v>45</v>
       </c>
-      <c r="G19" t="s">
+      <c r="J19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H19" t="s">
+      <c r="K19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I19">
+      <c r="L19" s="1">
         <v>666</v>
       </c>
-      <c r="J19">
-        <v>66</v>
-      </c>
-      <c r="K19">
-        <v>66</v>
-      </c>
-      <c r="L19">
+      <c r="M19" s="1">
+        <v>66</v>
+      </c>
+      <c r="N19" s="1">
+        <v>66</v>
+      </c>
+      <c r="O19" s="1">
         <v>54</v>
       </c>
-      <c r="M19" t="s">
+      <c r="P19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N19" t="s">
+      <c r="Q19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O19" t="s">
+      <c r="R19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P19" t="s">
+      <c r="S19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="T19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R19">
+      <c r="U19" s="1">
         <v>3455</v>
       </c>
-      <c r="S19">
-        <v>66</v>
-      </c>
-      <c r="T19">
+      <c r="V19" s="1">
+        <v>66</v>
+      </c>
+      <c r="W19" s="1">
         <v>3453</v>
       </c>
-      <c r="U19">
+      <c r="X19" s="1">
         <v>4545</v>
       </c>
-      <c r="V19" t="s">
+      <c r="Y19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W19">
+      <c r="Z19" s="1">
         <v>54345</v>
       </c>
-      <c r="X19">
+      <c r="AA19" s="1">
         <v>5435</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="AB19" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20">
+      <c r="F20" s="1">
         <v>3</v>
       </c>
-      <c r="D20">
+      <c r="G20" s="1">
         <v>23424343</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F20">
+      <c r="I20" s="1">
         <v>45</v>
       </c>
-      <c r="G20" t="s">
+      <c r="J20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H20" t="s">
+      <c r="K20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I20">
+      <c r="L20" s="1">
         <v>666</v>
       </c>
-      <c r="J20">
-        <v>66</v>
-      </c>
-      <c r="K20">
-        <v>66</v>
-      </c>
-      <c r="L20">
+      <c r="M20" s="1">
+        <v>66</v>
+      </c>
+      <c r="N20" s="1">
+        <v>66</v>
+      </c>
+      <c r="O20" s="1">
         <v>54</v>
       </c>
-      <c r="M20" t="s">
+      <c r="P20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N20" t="s">
+      <c r="Q20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O20" t="s">
+      <c r="R20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P20" t="s">
+      <c r="S20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="T20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R20">
+      <c r="U20" s="1">
         <v>3455</v>
       </c>
-      <c r="S20">
-        <v>66</v>
-      </c>
-      <c r="T20">
+      <c r="V20" s="1">
+        <v>66</v>
+      </c>
+      <c r="W20" s="1">
         <v>3453</v>
       </c>
-      <c r="U20">
+      <c r="X20" s="1">
         <v>4545</v>
       </c>
-      <c r="V20" t="s">
+      <c r="Y20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="W20">
+      <c r="Z20" s="1">
         <v>54345</v>
       </c>
-      <c r="X20">
+      <c r="AA20" s="1">
         <v>5435</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="AB20" s="1" t="s">
         <v>46</v>
       </c>
     </row>
